--- a/AAII_Financials/Quarterly/AZTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZTA_QTR_FIN.xlsx
@@ -302,7 +302,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +344,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/AZTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZTA_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,142 +662,168 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>132700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>145500</v>
+      </c>
+      <c r="F8" s="3">
         <v>139700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>513700</v>
       </c>
-      <c r="F8" s="3">
-        <v>315300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>286600</v>
-      </c>
       <c r="H8" s="3">
+        <v>129100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>129500</v>
+      </c>
+      <c r="J8" s="3">
         <v>118100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>388500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>220400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>220200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>74700</v>
+      </c>
+      <c r="F9" s="3">
         <v>72600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>269900</v>
       </c>
-      <c r="F9" s="3">
-        <v>170900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>159300</v>
-      </c>
       <c r="H9" s="3">
+        <v>66700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>71600</v>
+      </c>
+      <c r="J9" s="3">
         <v>60800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>216400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>127600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>129900</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>70800</v>
+      </c>
+      <c r="F10" s="3">
         <v>67100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>243800</v>
       </c>
-      <c r="F10" s="3">
-        <v>144400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>127300</v>
-      </c>
       <c r="H10" s="3">
+        <v>62400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>57900</v>
+      </c>
+      <c r="J10" s="3">
         <v>57300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>172100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>92800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>90300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,8 +835,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -818,28 +846,34 @@
         <v>6500</v>
       </c>
       <c r="E12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G12" s="3">
         <v>22400</v>
       </c>
-      <c r="F12" s="3">
-        <v>18300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>16900</v>
-      </c>
       <c r="H12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J12" s="3">
         <v>5100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>17800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>14000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -867,37 +901,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>800</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>21100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>6300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>11900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -925,8 +971,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,66 +987,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>137800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>150900</v>
+      </c>
+      <c r="F17" s="3">
         <v>140000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>544800</v>
       </c>
-      <c r="F17" s="3">
-        <v>265100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>256100</v>
-      </c>
       <c r="H17" s="3">
+        <v>130000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>138900</v>
+      </c>
+      <c r="J17" s="3">
         <v>117800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>425100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>201300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>205700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-31100</v>
       </c>
-      <c r="F18" s="3">
-        <v>50200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>30500</v>
-      </c>
       <c r="H18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-36600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>19100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,153 +1072,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-15800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L20" s="3">
+        <v>500</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
-        <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1200</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F21" s="3">
         <v>11500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>18400</v>
       </c>
-      <c r="F21" s="3">
-        <v>66200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>46500</v>
-      </c>
       <c r="H21" s="3">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="I21" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K21" s="3">
         <v>28200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>36300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="E22" s="3">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
       </c>
       <c r="G22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
-        <v>1100</v>
-      </c>
       <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>600</v>
+      </c>
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-49000</v>
       </c>
-      <c r="F23" s="3">
-        <v>48500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>30200</v>
-      </c>
       <c r="H23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-40300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>18800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-4700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-20100</v>
       </c>
-      <c r="F24" s="3">
-        <v>9400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>6300</v>
-      </c>
       <c r="H24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-13900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,66 +1278,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F26" s="3">
         <v>2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-28900</v>
       </c>
-      <c r="F26" s="3">
-        <v>39200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>23900</v>
-      </c>
       <c r="H26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="J26" s="3">
         <v>2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-26400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>13700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F27" s="3">
         <v>2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-28900</v>
       </c>
-      <c r="F27" s="3">
-        <v>39200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>23900</v>
-      </c>
       <c r="H27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="J27" s="3">
         <v>2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-26400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>13700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1267,37 +1383,49 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2121700</v>
+      </c>
+      <c r="F29" s="3">
         <v>40500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>139600</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-200</v>
-      </c>
       <c r="H29" s="3">
+        <v>41000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>30900</v>
+      </c>
+      <c r="J29" s="3">
         <v>22300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>91200</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1325,8 +1453,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1354,66 +1488,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>15800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K32" s="3">
+        <v>700</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2119900</v>
+      </c>
+      <c r="F33" s="3">
         <v>43300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>110700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>39200</v>
       </c>
-      <c r="G33" s="3">
-        <v>23700</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>23600</v>
+      </c>
+      <c r="J33" s="3">
         <v>25000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>64900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>13700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1441,71 +1593,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2119900</v>
+      </c>
+      <c r="F35" s="3">
         <v>43300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>110700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>39200</v>
       </c>
-      <c r="G35" s="3">
-        <v>23700</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>23600</v>
+      </c>
+      <c r="J35" s="3">
         <v>25000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>64900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>13700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1517,8 +1687,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1530,45 +1702,53 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1474200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1936300</v>
+      </c>
+      <c r="F41" s="3">
         <v>215200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>227400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>269900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>320100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>308500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>250600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>256600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>242300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>100</v>
+        <v>709100</v>
       </c>
       <c r="E42" s="3">
-        <v>100</v>
+        <v>816500</v>
       </c>
       <c r="F42" s="3">
         <v>100</v>
@@ -1586,213 +1766,261 @@
         <v>100</v>
       </c>
       <c r="K42" s="3">
+        <v>100</v>
+      </c>
+      <c r="L42" s="3">
+        <v>100</v>
+      </c>
+      <c r="M42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>171100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>163400</v>
+      </c>
+      <c r="F43" s="3">
         <v>139800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>135200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>250200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>239100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>209600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>109500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>198700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>194100</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>77800</v>
+      </c>
+      <c r="F44" s="3">
         <v>70100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>60400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>154700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>128000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>123900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>37100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>117700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>107700</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>139800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>49200</v>
+      </c>
+      <c r="F45" s="3">
         <v>371600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>354300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>42400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>37200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>33100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>252000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>28900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2575300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3043100</v>
+      </c>
+      <c r="F46" s="3">
         <v>796700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>777400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>717200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>724500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>675200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>649500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>602000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>572500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>260200</v>
+      </c>
+      <c r="F47" s="3">
         <v>3700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>3600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>3600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>3500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>3400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>205300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>203700</v>
+      </c>
+      <c r="F48" s="3">
         <v>195200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>180400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>198700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>172600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>169100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>112100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>147600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>143400</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>625600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>638300</v>
+      </c>
+      <c r="F49" s="3">
         <v>647200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>655900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>806300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>723000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>732900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>665500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>726700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>734600</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1820,8 +2048,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1849,37 +2083,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F52" s="3">
         <v>212100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>202300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>37500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>40500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>34200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>129200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>24600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1907,37 +2153,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>3722700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4159000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1854900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1819500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1763300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1664100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1614700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1559300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1503900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1479300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1949,8 +2207,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1962,132 +2222,158 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>35900</v>
+      </c>
+      <c r="F57" s="3">
         <v>46900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>42400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>98200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>77700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>67800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>25700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>70300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2000</v>
       </c>
       <c r="K58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>160300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>582100</v>
+      </c>
+      <c r="F59" s="3">
         <v>294800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>302400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>212300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>186700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>156500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>183500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>133500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>131000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>194900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>618000</v>
+      </c>
+      <c r="F60" s="3">
         <v>341800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>345100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>311100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>265600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>225800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>211100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>205800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>49700</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>49700</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>49700</v>
@@ -2096,48 +2382,60 @@
         <v>49700</v>
       </c>
       <c r="H61" s="3">
+        <v>49700</v>
+      </c>
+      <c r="I61" s="3">
+        <v>49700</v>
+      </c>
+      <c r="J61" s="3">
         <v>49800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>49900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>50200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>76100</v>
+      </c>
+      <c r="F62" s="3">
         <v>96000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>99400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>94700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>82700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>87000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>84600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>73100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2165,8 +2463,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2194,8 +2498,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2223,37 +2533,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>294900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>694100</v>
+      </c>
+      <c r="F66" s="3">
         <v>487500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>494200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>455400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>398100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>362600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>345700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>329100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>318200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2265,8 +2587,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2294,8 +2618,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2323,8 +2653,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2352,8 +2688,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2381,37 +2723,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>1676100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1685600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-434200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-470100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-484400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-516200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-532500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-551100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-572700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2439,8 +2793,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2468,8 +2828,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2497,37 +2863,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3427800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3465000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1367400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1325300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1307800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1266000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1252200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1213600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1174900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1161100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2555,71 +2933,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2119900</v>
+      </c>
+      <c r="F81" s="3">
         <v>43300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>110700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>39200</v>
       </c>
-      <c r="G81" s="3">
-        <v>23700</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>23600</v>
+      </c>
+      <c r="J81" s="3">
         <v>25000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>64900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>13700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2631,37 +3027,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F83" s="3">
         <v>12900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>65300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>17100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>15800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>15700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>65500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>16700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2689,8 +3093,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2718,8 +3128,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2747,8 +3163,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2776,8 +3198,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2805,37 +3233,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-419900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-71400</v>
+      </c>
+      <c r="F89" s="3">
         <v>15600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>149900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>44800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>34200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>43700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>37900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>26100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-65800</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2847,37 +3287,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-18400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-52800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-9100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-10300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-15200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-39900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-8500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2905,8 +3353,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2934,37 +3388,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1826600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-18400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-146300</v>
       </c>
-      <c r="F94" s="3">
-        <v>-86400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-12200</v>
-      </c>
       <c r="H94" s="3">
+        <v>-101500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J94" s="3">
         <v>-30300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-22700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-8500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-17300</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2976,37 +3442,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-7500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-29700</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-7400</v>
       </c>
       <c r="H96" s="3">
         <v>-7400</v>
       </c>
       <c r="I96" s="3">
-        <v>-29500</v>
+        <v>-7400</v>
       </c>
       <c r="J96" s="3">
         <v>-7400</v>
       </c>
       <c r="K96" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="L96" s="3">
         <v>-7400</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>-7400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3034,8 +3508,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3063,8 +3543,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3092,91 +3578,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-7700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-25900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-8100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-5200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-8200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-27000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-8100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-73600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>5200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-5200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>11300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>9300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-462700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1675900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-12300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-17200</v>
       </c>
-      <c r="F102" s="3">
-        <v>-48200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>11700</v>
-      </c>
       <c r="H102" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>26800</v>
+      </c>
+      <c r="J102" s="3">
         <v>16500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>14400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-93000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZTA_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,168 +662,193 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>178400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>137600</v>
+      </c>
+      <c r="F8" s="3">
         <v>132700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>145500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>139700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>513700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>129100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>129500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>118100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>388500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>220400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>220200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>104500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>79500</v>
+      </c>
+      <c r="F9" s="3">
         <v>73100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>74700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>72600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>269900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>66700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>71600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>60800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>216400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>127600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>129900</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>58100</v>
+      </c>
+      <c r="F10" s="3">
         <v>59600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>70800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>67100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>243800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>62400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>57900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>57300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>172100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>92800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>90300</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,43 +862,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="E12" s="3">
-        <v>6900</v>
+        <v>7600</v>
       </c>
       <c r="F12" s="3">
         <v>6500</v>
       </c>
       <c r="G12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I12" s="3">
         <v>22400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>5500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>5200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>5100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>17800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>14000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,43 +940,55 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E14" s="3">
+        <v>400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>21100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>6300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>11900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -977,8 +1022,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,78 +1040,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>206100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>152200</v>
+      </c>
+      <c r="F17" s="3">
         <v>137800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>150900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>140000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>544800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>130000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>138900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>117800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>425100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>201300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>205700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-31100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-9400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-36600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>19100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1074,183 +1139,215 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F20" s="3">
         <v>7500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-15800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F21" s="3">
         <v>15200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>9700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>11500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>18400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>15000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>6600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>17500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>28200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>36300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2000</v>
       </c>
       <c r="H22" s="3">
         <v>500</v>
       </c>
       <c r="I22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
+        <v>500</v>
+      </c>
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-49000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-9600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-40300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>18800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F24" s="3">
         <v>7300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-3200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-4700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-20100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-13900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1284,78 +1381,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-28900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-26400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>13700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-28900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-26400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>13700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1389,43 +1504,55 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F29" s="3">
         <v>-2600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>2121700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>40500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>139600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>41000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>30900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>22300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>91200</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1459,8 +1586,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1494,78 +1627,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>15800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-9600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2119900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>43300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>110700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>39200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>23600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>25000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>64900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>13700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1599,83 +1750,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-9600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2119900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>43300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>110700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>39200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>23600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>25000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>64900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>13700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1689,8 +1858,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1704,57 +1875,65 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>608300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>658300</v>
+      </c>
+      <c r="F41" s="3">
         <v>1474200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1936300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>215200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>227400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>269900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>320100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>308500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>250600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>256600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>242300</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>522900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>911800</v>
+      </c>
+      <c r="F42" s="3">
         <v>709100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>816500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>100</v>
-      </c>
-      <c r="G42" s="3">
-        <v>100</v>
       </c>
       <c r="H42" s="3">
         <v>100</v>
@@ -1772,255 +1951,303 @@
         <v>100</v>
       </c>
       <c r="M42" s="3">
+        <v>100</v>
+      </c>
+      <c r="N42" s="3">
+        <v>100</v>
+      </c>
+      <c r="O42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>221500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>182000</v>
+      </c>
+      <c r="F43" s="3">
         <v>171100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>163400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>139800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>135200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>250200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>239100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>209600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>109500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>198700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>194100</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>145900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>85500</v>
+      </c>
+      <c r="F44" s="3">
         <v>81200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>77800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>70100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>60400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>154700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>128000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>123900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>37100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>117700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>107700</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>121300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>621800</v>
+      </c>
+      <c r="F45" s="3">
         <v>139800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>49200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>371600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>354300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>42400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>37200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>33100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>252000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>28900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1620000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2459300</v>
+      </c>
+      <c r="F46" s="3">
         <v>2575300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3043100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>796700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>777400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>717200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>724500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>675200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>649500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>602000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>572500</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>304700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>352000</v>
+      </c>
+      <c r="F47" s="3">
         <v>312000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>260200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>3700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>3600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>3600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>274300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>208500</v>
+      </c>
+      <c r="F48" s="3">
         <v>205300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>203700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>195200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>180400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>198700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>172600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>169100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>112100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>147600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>143400</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1088300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>692000</v>
+      </c>
+      <c r="F49" s="3">
         <v>625600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>638300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>647200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>655900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>806300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>723000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>732900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>665500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>726700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>734600</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2054,8 +2281,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2089,43 +2322,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F52" s="3">
         <v>4500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>13800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>212100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>202300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>37500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>40500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>34200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>129200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>24600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2159,43 +2404,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>3292400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3716100</v>
+      </c>
+      <c r="F54" s="3">
         <v>3722700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4159000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1854900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1819500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1763300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1664100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1614700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1559300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1503900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1479300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2209,8 +2466,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2224,162 +2483,188 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>38700</v>
+      </c>
+      <c r="F57" s="3">
         <v>34600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>35900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>46900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>42400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>98200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>77700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>67800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>25700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>70300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2000</v>
       </c>
       <c r="M58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>193300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>191800</v>
+      </c>
+      <c r="F59" s="3">
         <v>160300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>582100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>294800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>302400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>212300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>186700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>156500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>183500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>133500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>131000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>230500</v>
+      </c>
+      <c r="F60" s="3">
         <v>194900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>618000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>341800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>345100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>311100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>265600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>225800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>211100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>205800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>49700</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>49700</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>49700</v>
@@ -2388,54 +2673,66 @@
         <v>49700</v>
       </c>
       <c r="J61" s="3">
+        <v>49700</v>
+      </c>
+      <c r="K61" s="3">
+        <v>49700</v>
+      </c>
+      <c r="L61" s="3">
         <v>49800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>49900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>50200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>171100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>122100</v>
+      </c>
+      <c r="F62" s="3">
         <v>100000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>76100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>96000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>99400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>94700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>82700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>87000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>84600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>73100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2469,8 +2766,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2504,8 +2807,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2539,43 +2848,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>421000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>352700</v>
+      </c>
+      <c r="F66" s="3">
         <v>294900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>694100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>487500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>494200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>455400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>398100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>362600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>345700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>329100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>318200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2589,8 +2910,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2624,8 +2947,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2659,8 +2988,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2694,8 +3029,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2729,43 +3070,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>1644000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1655400</v>
+      </c>
+      <c r="F72" s="3">
         <v>1676100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1685600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-434200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-470100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-484400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-516200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-532500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-551100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-572700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2799,8 +3152,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2834,8 +3193,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2869,43 +3234,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2871400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3363400</v>
+      </c>
+      <c r="F76" s="3">
         <v>3427800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3465000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1367400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1325300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1307800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1266000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1252200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1213600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1174900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1161100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2939,83 +3316,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-9600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2119900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>43300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>110700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>39200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>23600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>25000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>64900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>13700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3029,43 +3424,51 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F83" s="3">
         <v>12800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>13100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>12900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>65300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>17100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>15800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>15700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>65500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>16700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3099,8 +3502,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3134,8 +3543,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3169,8 +3584,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3204,8 +3625,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3239,43 +3666,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-419900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-71400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>15600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>149900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>44800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>34200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>43700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>37900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>26100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-65800</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3289,43 +3728,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-15400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-25900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-18400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-52800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-9100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-10300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-15200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-39900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-8500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3359,8 +3806,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3394,43 +3847,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-374500</v>
+      </c>
+      <c r="F94" s="3">
         <v>31900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>1826600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-18400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-146300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-101500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-30300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-22700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-8500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-17300</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3444,8 +3909,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3456,31 +3923,37 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-7500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-29700</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-7400</v>
       </c>
       <c r="J96" s="3">
         <v>-7400</v>
       </c>
       <c r="K96" s="3">
-        <v>-29500</v>
+        <v>-7400</v>
       </c>
       <c r="L96" s="3">
         <v>-7400</v>
       </c>
       <c r="M96" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="N96" s="3">
         <v>-7400</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>-7400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3514,8 +3987,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3549,8 +4028,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3584,109 +4069,133 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-504700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-55800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-7700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-25900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-8100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-5200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-8200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-27000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-8100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-81800</v>
+      </c>
+      <c r="F101" s="3">
         <v>-73600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-23600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>5200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-5200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>11300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>9300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>4900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-425400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-444900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-462700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1675900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-12300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-17200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-63200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>26800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>16500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>14400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-93000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>AZTA</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,193 +665,206 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E8" s="3">
         <v>178400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>137600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>132700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>145500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>139700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>513700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>129100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>129500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>118100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>388500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>220400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>220200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>95200</v>
+      </c>
+      <c r="E9" s="3">
         <v>104500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>79500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>73100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>74700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>72600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>269900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>66700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>71600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>60800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>216400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>127600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>129900</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E10" s="3">
         <v>73900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>58100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>59600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>70800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>67100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>243800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>62400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>57900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>57300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>172100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>92800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>90300</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E12" s="3">
         <v>7500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>17800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -946,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -955,40 +978,43 @@
         <v>1500</v>
       </c>
       <c r="E14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>21100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1042,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="3">
         <v>206100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>152200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>137800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>150900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>140000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>544800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>130000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>138900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>117800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>425100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>201300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>205700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-14600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-31100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-36600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1141,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="3">
         <v>11800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-15800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="3">
         <v>4300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>36300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1232,122 +1275,131 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>500</v>
       </c>
       <c r="K22" s="3">
         <v>500</v>
       </c>
       <c r="L22" s="3">
+        <v>500</v>
+      </c>
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-49000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-40300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>18800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-20100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-13900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1387,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-28900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1510,49 +1571,55 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-15500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-2600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>2121700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>40500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>139600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>41000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>30900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>22300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>91200</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1592,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1633,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>15800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2119900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>43300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>110700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>39200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>25000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>64900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1756,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2119900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>43300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>110700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>39200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>25000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>64900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1860,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1877,66 +1966,70 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>667400</v>
+      </c>
+      <c r="E41" s="3">
         <v>608300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>658300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1474200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1936300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>215200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>227400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>269900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>320100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>308500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>250600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>256600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>242300</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>513700</v>
+      </c>
+      <c r="E42" s="3">
         <v>522900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>911800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>709100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>816500</v>
-      </c>
-      <c r="H42" s="3">
-        <v>100</v>
       </c>
       <c r="I42" s="3">
         <v>100</v>
@@ -1957,297 +2050,321 @@
         <v>100</v>
       </c>
       <c r="O42" s="3">
+        <v>100</v>
+      </c>
+      <c r="P42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E43" s="3">
         <v>221500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>182000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>171100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>163400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>139800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>135200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>250200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>239100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>209600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>109500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>198700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>194100</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>150700</v>
+      </c>
+      <c r="E44" s="3">
         <v>145900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>85500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>81200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>77800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>70100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>60400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>154700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>128000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>123900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>37100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>117700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>107700</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E45" s="3">
         <v>121300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>621800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>139800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>49200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>371600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>354300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>37200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>252000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1585700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1620000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2459300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2575300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3043100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>796700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>777400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>717200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>724500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>675200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>649500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>602000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>572500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>266200</v>
+      </c>
+      <c r="E47" s="3">
         <v>304700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>352000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>312000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>260200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>3600</v>
       </c>
       <c r="J47" s="3">
         <v>3600</v>
       </c>
       <c r="K47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L47" s="3">
         <v>3500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>215300</v>
+      </c>
+      <c r="E48" s="3">
         <v>274300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>208500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>205300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>203700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>195200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>180400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>198700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>172600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>169100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>112100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>147600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>143400</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1114400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1088300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>692000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>625600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>638300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>647200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>655900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>806300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>723000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>732900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>665500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>726700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>734600</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2287,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2328,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E52" s="3">
         <v>5200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>212100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>202300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>37500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>40500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>34200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>129200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>24600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2410,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>3249800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3292400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3716100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3722700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4159000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1854900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1819500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1763300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1664100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1614700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1559300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1503900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1479300</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2468,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2485,81 +2618,85 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E57" s="3">
         <v>55300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>46900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>42400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>98200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>77700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>67800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>25700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>70300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2000</v>
       </c>
       <c r="N58" s="3">
         <v>2000</v>
@@ -2567,107 +2704,116 @@
       <c r="O58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>167300</v>
+      </c>
+      <c r="E59" s="3">
         <v>193300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>191800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>160300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>582100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>294800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>302400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>212300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>186700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>156500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>183500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>133500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>131000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>212600</v>
+      </c>
+      <c r="E60" s="3">
         <v>249000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>230500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>194900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>618000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>341800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>345100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>311100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>265600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>225800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>211100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>205800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>49700</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>49700</v>
@@ -2679,60 +2825,66 @@
         <v>49700</v>
       </c>
       <c r="L61" s="3">
+        <v>49700</v>
+      </c>
+      <c r="M61" s="3">
         <v>49800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>49900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>50200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E62" s="3">
         <v>171100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>122100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>76100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>96000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>99400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>94700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>82700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>87000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>84600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>73100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2772,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2813,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2854,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>354600</v>
+      </c>
+      <c r="E66" s="3">
         <v>421000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>352700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>294900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>694100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>487500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>494200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>455400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>398100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>362600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>345700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>329100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>318200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2912,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2953,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2994,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3035,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3076,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>1639100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1644000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1655400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1676100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1685600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-434200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-470100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-484400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-516200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-532500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-551100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-572700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3158,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3199,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3240,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2895200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2871400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3363400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3427800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3465000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1367400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1325300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1307800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1266000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1252200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1213600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1174900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1161100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3322,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2119900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>43300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>110700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>39200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>25000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>64900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3426,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E83" s="3">
         <v>20200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>65300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>65500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3508,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3549,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3590,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3631,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3672,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-419900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-71400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>149900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>44800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>34200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>43700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>37900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-65800</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3730,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15400</v>
       </c>
-      <c r="G91" s="3">
-        <v>-25900</v>
-      </c>
       <c r="H91" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="I91" s="3">
         <v>-18400</v>
       </c>
-      <c r="I91" s="3">
-        <v>-52800</v>
-      </c>
       <c r="J91" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-39900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3812,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3853,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E94" s="3">
         <v>56400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-374500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>31900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1826600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-146300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-101500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-30300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-17300</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3911,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3929,13 +4166,13 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-7500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-29700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-7400</v>
       </c>
       <c r="K96" s="3">
         <v>-7400</v>
@@ -3944,16 +4181,19 @@
         <v>-7400</v>
       </c>
       <c r="M96" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="N96" s="3">
         <v>-29500</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-7400</v>
       </c>
       <c r="O96" s="3">
         <v>-7400</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>-7400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3993,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4034,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4075,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-504700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-55800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-25900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-27000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E101" s="3">
         <v>49900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-81800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-73600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-23600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-425400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-444900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-462700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1675900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-63200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-93000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>AZTA</t>
   </si>
@@ -295,9 +295,6 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -656,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +662,219 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>165900</v>
+      </c>
+      <c r="E8" s="3">
         <v>148400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>178400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>137600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>132700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>145500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>139700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>513700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>129100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>129500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>118100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>388500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>220400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>220200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>97900</v>
+      </c>
+      <c r="E9" s="3">
         <v>95200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>104500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>79500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>73100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>74700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>72600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>269900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>66700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>71600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>60800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>216400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>127600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>129900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E10" s="3">
         <v>53200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>73900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>58100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>59600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>70800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>67100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>243800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>57900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>57300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>172100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>92800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>90300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +891,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
         <v>8500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>17800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,52 +983,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="E14" s="3">
         <v>1500</v>
       </c>
       <c r="F14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>21100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1095,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>91</v>
+      <c r="D17" s="3">
+        <v>181800</v>
       </c>
       <c r="E17" s="3">
+        <v>161400</v>
+      </c>
+      <c r="F17" s="3">
         <v>206100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>152200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>137800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>150900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>140000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>544800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>130000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>138900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>117800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>425100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>201300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>205700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>91</v>
+      <c r="D18" s="3">
+        <v>-15900</v>
       </c>
       <c r="E18" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-27700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-31100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-36600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,96 +1208,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>91</v>
+      <c r="D20" s="3">
+        <v>12200</v>
       </c>
       <c r="E20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F20" s="3">
         <v>11800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-15800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>91</v>
+      <c r="D21" s="3">
+        <v>17600</v>
       </c>
       <c r="E21" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F21" s="3">
         <v>4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>36300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1278,128 +1315,137 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>500</v>
       </c>
       <c r="L22" s="3">
         <v>500</v>
       </c>
       <c r="M22" s="3">
+        <v>500</v>
+      </c>
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-49000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-40300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-20100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-13900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1488,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>91</v>
+      <c r="D26" s="3">
+        <v>-2500</v>
       </c>
       <c r="E26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-26400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>91</v>
+      <c r="D27" s="3">
+        <v>-2500</v>
       </c>
       <c r="E27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-11200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,52 +1629,58 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>91</v>
+      <c r="D29" s="3">
+        <v>1000</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-2900</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-15500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-2600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>2121700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>40500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>139600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>41000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>30900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>22300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>91200</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1662,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1706,96 +1770,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>91</v>
+      <c r="D32" s="3">
+        <v>-12200</v>
       </c>
       <c r="E32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-11800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>15800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>91</v>
+      <c r="D33" s="3">
+        <v>-1500</v>
       </c>
       <c r="E33" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-11200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2119900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>43300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>110700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>25000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>64900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1838,101 +1911,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>91</v>
+      <c r="D35" s="3">
+        <v>-1500</v>
       </c>
       <c r="E35" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-11200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2119900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>43300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>110700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>25000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>64900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1949,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1967,72 +2050,76 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>733400</v>
+      </c>
+      <c r="E41" s="3">
         <v>667400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>608300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>658300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1474200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1936300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>215200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>227400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>269900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>320100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>308500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>250600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>256600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>242300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>390500</v>
+      </c>
+      <c r="E42" s="3">
         <v>513700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>522900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>911800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>709100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>816500</v>
-      </c>
-      <c r="I42" s="3">
-        <v>100</v>
       </c>
       <c r="J42" s="3">
         <v>100</v>
@@ -2053,318 +2140,342 @@
         <v>100</v>
       </c>
       <c r="P42" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>168000</v>
+        <v>183300</v>
       </c>
       <c r="E43" s="3">
+        <v>190700</v>
+      </c>
+      <c r="F43" s="3">
         <v>221500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>182000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>171100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>163400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>139800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>135200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>250200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>239100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>209600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>109500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>198700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>194100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>142100</v>
+      </c>
+      <c r="E44" s="3">
         <v>150700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>145900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>85500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>81200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>77800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>70100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>60400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>154700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>128000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>123900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>37100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>117700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>107700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>86000</v>
+        <v>61600</v>
       </c>
       <c r="E45" s="3">
+        <v>63300</v>
+      </c>
+      <c r="F45" s="3">
         <v>121300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>621800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>139800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>49200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>371600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>354300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>37200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>33100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>252000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1510800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1585700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1620000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2459300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2575300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3043100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>796700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>777400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>717200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>724500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>675200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>649500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>602000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>572500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>169400</v>
+      </c>
+      <c r="E47" s="3">
         <v>266200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>304700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>352000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>312000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>260200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3700</v>
-      </c>
-      <c r="J47" s="3">
-        <v>3600</v>
       </c>
       <c r="K47" s="3">
         <v>3600</v>
       </c>
       <c r="L47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M47" s="3">
         <v>3500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>215300</v>
+        <v>278300</v>
       </c>
       <c r="E48" s="3">
+        <v>278400</v>
+      </c>
+      <c r="F48" s="3">
         <v>274300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>208500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>205300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>203700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>195200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>180400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>198700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>172600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>169100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>112100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>147600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>143400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1105700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1114400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1088300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>692000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>625600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>638300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>647200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>655900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>806300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>723000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>732900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>665500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>726700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>734600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2407,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2451,52 +2565,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>68200</v>
+        <v>5200</v>
       </c>
       <c r="E52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F52" s="3">
         <v>5200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>212100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>202300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>37500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>40500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>34200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>129200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>24600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2539,52 +2659,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>3069400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3249800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3292400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3716100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3722700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4159000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1854900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1819500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1763300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1664100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1614700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1559300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1503900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1479300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2601,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2619,87 +2746,91 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E57" s="3">
         <v>45300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>55300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>46900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>42400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>98200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>77700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>67800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>70300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>91</v>
+      <c r="D58" s="3">
+        <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>2000</v>
       </c>
       <c r="O58" s="3">
         <v>2000</v>
@@ -2707,116 +2838,125 @@
       <c r="P58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>167300</v>
+        <v>165000</v>
       </c>
       <c r="E59" s="3">
+        <v>166800</v>
+      </c>
+      <c r="F59" s="3">
         <v>193300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>191800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>160300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>582100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>294800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>302400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>212300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>186700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>156500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>183500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>133500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>131000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>203600</v>
+      </c>
+      <c r="E60" s="3">
         <v>212600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>249000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>230500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>194900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>618000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>341800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>345100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>311100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>265600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>225800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>211100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>205800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>49700</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>49700</v>
@@ -2828,63 +2968,69 @@
         <v>49700</v>
       </c>
       <c r="M61" s="3">
+        <v>49700</v>
+      </c>
+      <c r="N61" s="3">
         <v>49800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>49900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>50200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>141900</v>
+        <v>140800</v>
       </c>
       <c r="E62" s="3">
+        <v>140800</v>
+      </c>
+      <c r="F62" s="3">
         <v>171100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>122100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>76100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>96000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>99400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>94700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>82700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>87000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>84600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>73100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>70300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2927,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3015,52 +3167,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>345900</v>
+      </c>
+      <c r="E66" s="3">
         <v>354600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>421000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>352700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>294900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>694100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>487500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>494200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>455400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>398100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>362600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>345700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>329100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>318200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3077,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3121,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3165,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3209,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3253,52 +3421,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>1637600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1639100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1644000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1655400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1676100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1685600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-434200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-470100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-484400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-516200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-532500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-551100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-572700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-579000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3341,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3385,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3429,52 +3609,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2723500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2895200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2871400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3363400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3427800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3465000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1367400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1325300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1307800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1266000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1252200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1213600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1174900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1161100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3517,101 +3703,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>91</v>
+      <c r="D81" s="3">
+        <v>-1500</v>
       </c>
       <c r="E81" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-11200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2119900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>43300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>110700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>25000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>64900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3628,52 +3823,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E83" s="3">
         <v>22000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>65300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>65500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3716,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3760,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3804,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3848,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3892,52 +4103,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-419900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-71400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>149900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>44800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>34200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>43700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>37900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-65800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3954,52 +4171,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-39900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4042,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4086,52 +4310,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>214400</v>
+      </c>
+      <c r="E94" s="3">
         <v>58200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>56400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-374500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>31900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1826600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-146300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-101500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-30300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-17300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4148,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4169,13 +4400,13 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-7500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-29700</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-7400</v>
       </c>
       <c r="L96" s="3">
         <v>-7400</v>
@@ -4184,16 +4415,19 @@
         <v>-7400</v>
       </c>
       <c r="N96" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="O96" s="3">
         <v>-29500</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-7400</v>
       </c>
       <c r="P96" s="3">
         <v>-7400</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-7400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4236,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4280,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4324,136 +4564,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-172100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-504700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-55800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-25900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E101" s="3">
         <v>10400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>49900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-81800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-73600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-23600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>11300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E102" s="3">
         <v>56000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-425400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-444900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-462700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1675900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-63200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-93000</v>
       </c>
     </row>
